--- a/public/data/lime/lime_table_niger.xlsx
+++ b/public/data/lime/lime_table_niger.xlsx
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7</v>
+        <v>0.37</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -2143,40 +2143,40 @@
         <v>108</v>
       </c>
       <c r="D20" t="n">
-        <v>0.77</v>
+        <v>0.14</v>
       </c>
       <c r="E20" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.07</v>
+        <v>0.24</v>
       </c>
       <c r="K20" t="n">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2255,19 +2255,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.92</v>
+        <v>0.25</v>
       </c>
       <c r="K22" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2358,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2537,13 +2537,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.7</v>
+        <v>0.39</v>
       </c>
       <c r="K28" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -2622,19 +2622,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.65</v>
+        <v>0.3</v>
       </c>
       <c r="K30" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
